--- a/documentation/UI Contracts.xlsx
+++ b/documentation/UI Contracts.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="4695" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Coverages" sheetId="1" r:id="rId1"/>
     <sheet name="Benefit" sheetId="2" r:id="rId2"/>
+    <sheet name="Team" sheetId="3" r:id="rId3"/>
+    <sheet name="BranchManager" sheetId="4" r:id="rId4"/>
+    <sheet name="RegionalManager" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="50">
   <si>
     <t>Use Cases</t>
   </si>
@@ -87,6 +90,84 @@
   </si>
   <si>
     <t>{coverageName:"aa",description:"des",benefits[CI benefits,Total disability]}</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>view Team</t>
+  </si>
+  <si>
+    <t>create Team</t>
+  </si>
+  <si>
+    <t>assign Team</t>
+  </si>
+  <si>
+    <t>/core/team/view</t>
+  </si>
+  <si>
+    <t>/core/team/create</t>
+  </si>
+  <si>
+    <t>/core/team/assign</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Request Method</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Response Method</t>
+  </si>
+  <si>
+    <t>{regionName:"North",branchName:"Kasama",teamName:"Kasama A",teamCode:"T4355",teamLeader:"",teamLeaderFrom:""}</t>
+  </si>
+  <si>
+    <t>{regionName:["North",South,],branchName:["Kasama","Livingstone","Choma","Mazabuka"],teamName:["Kasama A","Livingstone  A"],teamCode:"",teamLeader:"",teamLeaderFrom:""}</t>
+  </si>
+  <si>
+    <t>Branch Manager</t>
+  </si>
+  <si>
+    <t>view BranchManager</t>
+  </si>
+  <si>
+    <t>assign BranchManager</t>
+  </si>
+  <si>
+    <t>/core/branchManager/view</t>
+  </si>
+  <si>
+    <t>/core/branchManager/assign</t>
+  </si>
+  <si>
+    <t>{regionName:"South",branchName:"Livingstone",branchManager:["BranchManager-A","BranchManager-B","BranchManager-C"],branchManagerFrom:"06/08/2014"}</t>
+  </si>
+  <si>
+    <t>{regionName:"South",branchName:"Livingstone",branchManager:"BranchManager-C",branchManagerFrom:"06/08/2014"}</t>
+  </si>
+  <si>
+    <t>Regional Manager</t>
+  </si>
+  <si>
+    <t>view RegionalManager</t>
+  </si>
+  <si>
+    <t>assign RegionalManager</t>
+  </si>
+  <si>
+    <t>/core/regionalManager/view</t>
+  </si>
+  <si>
+    <t>/core/regionalManager/assign</t>
+  </si>
+  <si>
+    <t>{regionName:"South",branchName:"Livingstone",regionalManager:["RegionalManager-A","RegionalManager-B","RegionalManager-C"],regionalManagerFrom:"06/08/2014"}</t>
+  </si>
+  <si>
+    <t>{regionName:"South",branchName:"Livingstone",regionalManager:"RegionalManager-C",regionalManagerFrom:"06/08/2014"}</t>
+  </si>
+  <si>
+    <t>ErrMsg</t>
   </si>
 </sst>
 </file>
@@ -441,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -655,4 +736,338 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="140.140625" customWidth="1"/>
+    <col min="7" max="7" width="114.85546875" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="6" width="145.140625" customWidth="1"/>
+    <col min="7" max="7" width="117.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
+    <col min="6" max="6" width="150.140625" customWidth="1"/>
+    <col min="7" max="7" width="121" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>